--- a/model/optimization/matlab/opti-ide-val-single-precision.xlsx
+++ b/model/optimization/matlab/opti-ide-val-single-precision.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Il mio Drive\Tesi magistrale\Python\CTM-s\model\optimization\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\Uni\LM II anno\Tesi\python\CTM-s\model\optimization\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E0087-8490-4BCD-B7DA-FBF1BD1D788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273D68B-624F-4CE5-B489-76B82949DD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="360" windowWidth="21480" windowHeight="14745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Integral delta" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>grado</t>
   </si>
@@ -63,6 +63,240 @@
   </si>
   <si>
     <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>tol</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>tol</t>
   </si>
   <si>
     <t>SSR_ide</t>
@@ -572,55 +806,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="15.85546875" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="2" max="4" width="15.85546875" customWidth="true"/>
+    <col min="5" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="8" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="10" max="11" width="12.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.85546875" customWidth="true"/>
-    <col min="4" max="4" width="15.85546875" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>23</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
@@ -1042,40 +1271,40 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>188901851136</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>34459783168</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>191622103040</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>25.978790283203125</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>26.053476333618164</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>0.52575081586837769</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>0.52233803272247314</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>859.11737060546875</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>0.50397318601608276</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>0.48304265737533569</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>874.75543212890625</v>
       </c>
     </row>
@@ -1111,43 +1340,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
@@ -1155,40 +1384,40 @@
         <v>8</v>
       </c>
       <c r="B2" s="0">
-        <v>9.9999997473787516e-06</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="C2" s="0">
-        <v>178953912320</v>
+        <v>180454424576</v>
       </c>
       <c r="D2" s="0">
-        <v>30845911040</v>
+        <v>31225214976</v>
       </c>
       <c r="E2" s="0">
-        <v>179495960576</v>
+        <v>180826210304</v>
       </c>
       <c r="F2" s="0">
-        <v>25.913419723510742</v>
+        <v>25.920801162719727</v>
       </c>
       <c r="G2" s="0">
-        <v>25.929218292236328</v>
+        <v>25.931552886962891</v>
       </c>
       <c r="H2" s="0">
-        <v>0.54834675788879395</v>
+        <v>0.54455399513244629</v>
       </c>
       <c r="I2" s="0">
-        <v>0.54766452312469482</v>
+        <v>0.54408657550811768</v>
       </c>
       <c r="J2" s="0">
-        <v>838.40093994140625</v>
+        <v>841.9139404296875</v>
       </c>
       <c r="K2" s="0">
-        <v>0.55493974685668945</v>
+        <v>0.54947173595428467</v>
       </c>
       <c r="L2" s="0">
-        <v>0.55110293626785278</v>
+        <v>0.54683911800384521</v>
       </c>
       <c r="M2" s="0">
-        <v>828.59716796875</v>
+        <v>833.67138671875</v>
       </c>
     </row>
     <row r="3">
@@ -1196,40 +1425,40 @@
         <v>8</v>
       </c>
       <c r="B3" s="0">
-        <v>10</v>
+        <v>0.0099999997764825821</v>
       </c>
       <c r="C3" s="0">
-        <v>189840818176</v>
+        <v>181130248192</v>
       </c>
       <c r="D3" s="0">
-        <v>32744464384</v>
+        <v>31335268352</v>
       </c>
       <c r="E3" s="0">
-        <v>190121394176</v>
+        <v>181479194624</v>
       </c>
       <c r="F3" s="0">
-        <v>25.970928192138672</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G3" s="0">
-        <v>25.978643417358398</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H3" s="0">
-        <v>0.52086985111236572</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I3" s="0">
-        <v>0.52051770687103271</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J3" s="0">
-        <v>863.52703857421875</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K3" s="0">
-        <v>0.52753531932830811</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L3" s="0">
-        <v>0.52556055784225464</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M3" s="0">
-        <v>853.72576904296875</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="4">
@@ -1237,40 +1466,40 @@
         <v>8</v>
       </c>
       <c r="B4" s="0">
-        <v>100</v>
+        <v>0.0010000000474974513</v>
       </c>
       <c r="C4" s="0">
-        <v>196140072960</v>
+        <v>181130231808</v>
       </c>
       <c r="D4" s="0">
-        <v>33993496576</v>
+        <v>31335268352</v>
       </c>
       <c r="E4" s="0">
-        <v>196365156352</v>
+        <v>181479178240</v>
       </c>
       <c r="F4" s="0">
-        <v>26.003240585327148</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G4" s="0">
-        <v>26.009231567382813</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H4" s="0">
-        <v>0.50498604774475098</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I4" s="0">
-        <v>0.50470399856567383</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J4" s="0">
-        <v>877.723876953125</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K4" s="0">
-        <v>0.50953871011734009</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L4" s="0">
-        <v>0.50795066356658936</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M4" s="0">
-        <v>869.83404541015625</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="5">
@@ -1278,40 +1507,40 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>1000</v>
+        <v>9.9999997473787516e-05</v>
       </c>
       <c r="C5" s="0">
-        <v>206905458688</v>
+        <v>181130231808</v>
       </c>
       <c r="D5" s="0">
-        <v>35839303680</v>
+        <v>31335266304</v>
       </c>
       <c r="E5" s="0">
-        <v>207094087680</v>
+        <v>181479178240</v>
       </c>
       <c r="F5" s="0">
-        <v>26.056440353393555</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G5" s="0">
-        <v>26.061199188232422</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H5" s="0">
-        <v>0.47780746221542358</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I5" s="0">
-        <v>0.47757148742675781</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J5" s="0">
-        <v>901.49755859375</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K5" s="0">
-        <v>0.48290395736694336</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L5" s="0">
-        <v>0.48157691955566406</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M5" s="0">
-        <v>893.1407470703125</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="6">
@@ -1319,40 +1548,40 @@
         <v>8</v>
       </c>
       <c r="B6" s="0">
-        <v>10000</v>
+        <v>9.9999997473787516e-06</v>
       </c>
       <c r="C6" s="0">
-        <v>227120791552</v>
+        <v>181130231808</v>
       </c>
       <c r="D6" s="0">
-        <v>39455596544</v>
+        <v>31335249920</v>
       </c>
       <c r="E6" s="0">
-        <v>227268935680</v>
+        <v>181479178240</v>
       </c>
       <c r="F6" s="0">
-        <v>26.14940071105957</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G6" s="0">
-        <v>26.152807235717773</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H6" s="0">
-        <v>0.42678743600845337</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I6" s="0">
-        <v>0.42660278081893921</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J6" s="0">
-        <v>944.51116943359375</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K6" s="0">
-        <v>0.43072706460952759</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L6" s="0">
-        <v>0.42968612909317017</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M6" s="0">
-        <v>937.11761474609375</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="7">
@@ -1360,40 +1589,40 @@
         <v>8</v>
       </c>
       <c r="B7" s="0">
-        <v>100000</v>
+        <v>9.9999999747524271e-07</v>
       </c>
       <c r="C7" s="0">
-        <v>245071642624</v>
+        <v>181130248192</v>
       </c>
       <c r="D7" s="0">
-        <v>42229440512</v>
+        <v>31335268352</v>
       </c>
       <c r="E7" s="0">
-        <v>245181399040</v>
+        <v>181479194624</v>
       </c>
       <c r="F7" s="0">
-        <v>26.225265502929688</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G7" s="0">
-        <v>26.227603912353516</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H7" s="0">
-        <v>0.87358790636062622</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I7" s="0">
-        <v>0.87355959415435791</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J7" s="0">
-        <v>981.1258544921875</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K7" s="0">
-        <v>0.87602639198303223</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L7" s="0">
-        <v>0.87586891651153564</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M7" s="0">
-        <v>969.5159912109375</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="8">
@@ -1401,40 +1630,40 @@
         <v>8</v>
       </c>
       <c r="B8" s="0">
-        <v>1000000</v>
+        <v>1.0000000116860974e-07</v>
       </c>
       <c r="C8" s="0">
-        <v>347943206912</v>
+        <v>181130248192</v>
       </c>
       <c r="D8" s="0">
-        <v>55449296896</v>
+        <v>31335251968</v>
       </c>
       <c r="E8" s="0">
-        <v>348044361728</v>
+        <v>181479194624</v>
       </c>
       <c r="F8" s="0">
-        <v>26.575595855712891</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G8" s="0">
-        <v>26.577114105224609</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H8" s="0">
-        <v>0.82053035497665405</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I8" s="0">
-        <v>0.82050424814224243</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J8" s="0">
-        <v>1169.0306396484375</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K8" s="0">
-        <v>0.83727145195007324</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L8" s="0">
-        <v>0.83713734149932861</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M8" s="0">
-        <v>1110.7650146484375</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="9">
@@ -1442,40 +1671,40 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>10000000</v>
+        <v>9.9999999392252903e-09</v>
       </c>
       <c r="C9" s="0">
-        <v>515430875136</v>
+        <v>181130248192</v>
       </c>
       <c r="D9" s="0">
-        <v>87026360320</v>
+        <v>31335268352</v>
       </c>
       <c r="E9" s="0">
-        <v>515519971328</v>
+        <v>181479194624</v>
       </c>
       <c r="F9" s="0">
-        <v>26.968442916870117</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G9" s="0">
-        <v>26.969345092773438</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H9" s="0">
-        <v>0.73420196771621704</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I9" s="0">
-        <v>0.73417901992797852</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J9" s="0">
-        <v>1422.677001953125</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K9" s="0">
-        <v>0.74455356597900391</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L9" s="0">
-        <v>0.74442839622497559</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M9" s="0">
-        <v>1391.6822509765625</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="10">
@@ -1483,40 +1712,40 @@
         <v>8</v>
       </c>
       <c r="B10" s="0">
-        <v>100000000</v>
+        <v>9.9999997171806854e-10</v>
       </c>
       <c r="C10" s="0">
-        <v>714940874752</v>
+        <v>181130248192</v>
       </c>
       <c r="D10" s="0">
-        <v>124265963520</v>
+        <v>31335266304</v>
       </c>
       <c r="E10" s="0">
-        <v>715013881856</v>
+        <v>181479194624</v>
       </c>
       <c r="F10" s="0">
-        <v>27.295568466186523</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G10" s="0">
-        <v>27.296100616455078</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H10" s="0">
-        <v>0.6312137246131897</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I10" s="0">
-        <v>0.63119488954544067</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J10" s="0">
-        <v>1675.7828369140625</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K10" s="0">
-        <v>0.63521099090576172</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L10" s="0">
-        <v>0.63510537147521973</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M10" s="0">
-        <v>1663.07373046875</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="11">
@@ -1524,40 +1753,40 @@
         <v>8</v>
       </c>
       <c r="B11" s="0">
-        <v>1000000000</v>
+        <v>1.000000013351432e-10</v>
       </c>
       <c r="C11" s="0">
-        <v>1237432532992</v>
+        <v>181130231808</v>
       </c>
       <c r="D11" s="0">
-        <v>218090012672</v>
+        <v>31335266304</v>
       </c>
       <c r="E11" s="0">
-        <v>1237500559360</v>
+        <v>181479178240</v>
       </c>
       <c r="F11" s="0">
-        <v>27.844114303588867</v>
+        <v>25.924406051635742</v>
       </c>
       <c r="G11" s="0">
-        <v>27.844400405883789</v>
+        <v>25.934459686279297</v>
       </c>
       <c r="H11" s="0">
-        <v>0.36171352863311768</v>
+        <v>0.54285407066345215</v>
       </c>
       <c r="I11" s="0">
-        <v>0.36169600486755371</v>
+        <v>0.54241549968719482</v>
       </c>
       <c r="J11" s="0">
-        <v>2204.642822265625</v>
+        <v>843.48358154296875</v>
       </c>
       <c r="K11" s="0">
-        <v>0.35976803302764893</v>
+        <v>0.5478670597076416</v>
       </c>
       <c r="L11" s="0">
-        <v>0.35966825485229492</v>
+        <v>0.54539811611175537</v>
       </c>
       <c r="M11" s="0">
-        <v>2203.2236328125</v>
+        <v>835.154541015625</v>
       </c>
     </row>
     <row r="12">
@@ -1565,40 +1794,40 @@
         <v>8</v>
       </c>
       <c r="B12" s="0">
-        <v>10000000000</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="C12" s="0">
-        <v>1530506772480</v>
+        <v>202506731520</v>
       </c>
       <c r="D12" s="0">
-        <v>269238075392</v>
+        <v>35024863232</v>
       </c>
       <c r="E12" s="0">
-        <v>1530530758656</v>
+        <v>202707271680</v>
       </c>
       <c r="F12" s="0">
-        <v>28.056634902954102</v>
+        <v>26.035028457641602</v>
       </c>
       <c r="G12" s="0">
-        <v>28.056716918945313</v>
+        <v>26.040199279785156</v>
       </c>
       <c r="H12" s="0">
-        <v>0.2105410099029541</v>
+        <v>0.48891419172286987</v>
       </c>
       <c r="I12" s="0">
-        <v>0.21053481101989746</v>
+        <v>0.48866313695907593</v>
       </c>
       <c r="J12" s="0">
-        <v>2451.857421875</v>
+        <v>891.85888671875</v>
       </c>
       <c r="K12" s="0">
-        <v>0.20961582660675049</v>
+        <v>0.49465566873550415</v>
       </c>
       <c r="L12" s="0">
-        <v>0.20958065986633301</v>
+        <v>0.49324572086334229</v>
       </c>
       <c r="M12" s="0">
-        <v>2447.987548828125</v>
+        <v>882.93341064453125</v>
       </c>
     </row>
     <row r="13">
@@ -1606,40 +1835,40 @@
         <v>8</v>
       </c>
       <c r="B13" s="0">
-        <v>10000000000</v>
+        <v>0.10000000149011612</v>
       </c>
       <c r="C13" s="0">
-        <v>1530506772480</v>
+        <v>179934314496</v>
       </c>
       <c r="D13" s="0">
-        <v>269238075392</v>
+        <v>31132344320</v>
       </c>
       <c r="E13" s="0">
-        <v>1530530758656</v>
+        <v>180305035264</v>
       </c>
       <c r="F13" s="0">
-        <v>28.056634902954102</v>
+        <v>25.917915344238281</v>
       </c>
       <c r="G13" s="0">
-        <v>28.056716918945313</v>
+        <v>25.928667068481445</v>
       </c>
       <c r="H13" s="0">
-        <v>0.2105410099029541</v>
+        <v>0.54590988159179688</v>
       </c>
       <c r="I13" s="0">
-        <v>0.21053481101989746</v>
+        <v>0.54544389247894287</v>
       </c>
       <c r="J13" s="0">
-        <v>2451.857421875</v>
+        <v>840.6595458984375</v>
       </c>
       <c r="K13" s="0">
-        <v>0.20961582660675049</v>
+        <v>0.55089980363845825</v>
       </c>
       <c r="L13" s="0">
-        <v>0.20958065986633301</v>
+        <v>0.54827553033828735</v>
       </c>
       <c r="M13" s="0">
-        <v>2447.987548828125</v>
+        <v>832.34869384765625</v>
       </c>
     </row>
   </sheetData>

--- a/model/optimization/matlab/opti-ide-val-single-precision.xlsx
+++ b/model/optimization/matlab/opti-ide-val-single-precision.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\Uni\LM II anno\Tesi\python\CTM-s\model\optimization\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Il mio Drive\Tesi magistrale\Python\CTM-s\model\optimization\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3273D68B-624F-4CE5-B489-76B82949DD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D4979-ED8D-4F6E-9FEA-26CAE59D9A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="10920" yWindow="630" windowWidth="21480" windowHeight="14745"/>
   </bookViews>
   <sheets>
-    <sheet name="Integral delta" sheetId="2" r:id="rId1"/>
-    <sheet name="deep - integral delta" sheetId="3" r:id="rId5"/>
+    <sheet name="shallow - integral delta" sheetId="2" r:id="rId1"/>
+    <sheet name="shallow - pi" sheetId="4" r:id="rId2"/>
+    <sheet name="deep - integral delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'Integral delta'!$A$1:$L$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'shallow - integral delta'!$A$1:$L$12</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>grado</t>
   </si>
@@ -65,6 +66,9 @@
     <t>grado</t>
   </si>
   <si>
+    <t>tol</t>
+  </si>
+  <si>
     <t>SSR_ide</t>
   </si>
   <si>
@@ -101,9 +105,6 @@
     <t>grado</t>
   </si>
   <si>
-    <t>tol</t>
-  </si>
-  <si>
     <t>SSR_ide</t>
   </si>
   <si>
@@ -138,282 +139,6 @@
   </si>
   <si>
     <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
   </si>
   <si>
     <t>SSR_ide</t>
@@ -1319,558 +1044,1080 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="13.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>76874.665575768508</v>
+      </c>
+      <c r="C2">
+        <v>13403.398840586055</v>
+      </c>
+      <c r="D2">
+        <v>76877.685159076995</v>
+      </c>
+      <c r="E2">
+        <v>11.249970933397377</v>
+      </c>
+      <c r="F2">
+        <v>11.250176113009124</v>
+      </c>
+      <c r="G2">
+        <v>4.8403065191870875E-2</v>
+      </c>
+      <c r="H2">
+        <v>4.8388113966006174E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.54950195687430747</v>
+      </c>
+      <c r="J2">
+        <v>5.0225289801945183E-2</v>
+      </c>
+      <c r="K2">
+        <v>5.0140720676089989E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.54619651828542226</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>66170.988754588296</v>
+      </c>
+      <c r="C3">
+        <v>11566.344984161429</v>
+      </c>
+      <c r="D3">
+        <v>66178.786511898026</v>
+      </c>
+      <c r="E3">
+        <v>11.100115245131745</v>
+      </c>
+      <c r="F3">
+        <v>11.100730783966986</v>
+      </c>
+      <c r="G3">
+        <v>0.18089906992796412</v>
+      </c>
+      <c r="H3">
+        <v>0.1808540249591688</v>
+      </c>
+      <c r="I3">
+        <v>0.50981362225278015</v>
+      </c>
+      <c r="J3">
+        <v>0.1804002786130382</v>
+      </c>
+      <c r="K3">
+        <v>0.18014479810406714</v>
+      </c>
+      <c r="L3">
+        <v>0.5073872243263281</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>58764.358179777009</v>
+      </c>
+      <c r="C4">
+        <v>10270.604831209368</v>
+      </c>
+      <c r="D4">
+        <v>58780.517645329252</v>
+      </c>
+      <c r="E4">
+        <v>10.981565746419799</v>
+      </c>
+      <c r="F4">
+        <v>10.983002003702026</v>
+      </c>
+      <c r="G4">
+        <v>0.27258242099632313</v>
+      </c>
+      <c r="H4">
+        <v>0.27248526319792787</v>
+      </c>
+      <c r="I4">
+        <v>0.48043498195398021</v>
+      </c>
+      <c r="J4">
+        <v>0.27221737984974392</v>
+      </c>
+      <c r="K4">
+        <v>0.27166618903859052</v>
+      </c>
+      <c r="L4">
+        <v>0.47812281392554068</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>53542.562938047107</v>
+      </c>
+      <c r="C5">
+        <v>9316.5091774987595</v>
+      </c>
+      <c r="D5">
+        <v>53572.01406137368</v>
+      </c>
+      <c r="E5">
+        <v>10.888782084969298</v>
+      </c>
+      <c r="F5">
+        <v>10.891654599533753</v>
+      </c>
+      <c r="G5">
+        <v>0.33722067742331674</v>
+      </c>
+      <c r="H5">
+        <v>0.33704100032955742</v>
+      </c>
+      <c r="I5">
+        <v>0.45859276790416709</v>
+      </c>
+      <c r="J5">
+        <v>0.33982530033184244</v>
+      </c>
+      <c r="K5">
+        <v>0.33880982807991178</v>
+      </c>
+      <c r="L5">
+        <v>0.45537382642464086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>50780.17777311393</v>
+      </c>
+      <c r="C6">
+        <v>8809.6021579494518</v>
+      </c>
+      <c r="D6">
+        <v>50830.465846172119</v>
+      </c>
+      <c r="E6">
+        <v>10.836251175106101</v>
+      </c>
+      <c r="F6">
+        <v>10.841421701322123</v>
+      </c>
+      <c r="G6">
+        <v>0.37141500186066667</v>
+      </c>
+      <c r="H6">
+        <v>0.37110622534526816</v>
+      </c>
+      <c r="I6">
+        <v>0.44660618377362671</v>
+      </c>
+      <c r="J6">
+        <v>0.37574510495124203</v>
+      </c>
+      <c r="K6">
+        <v>0.37400340007464961</v>
+      </c>
+      <c r="L6">
+        <v>0.44281222782789736</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>49200.811968647715</v>
+      </c>
+      <c r="C7">
+        <v>8509.9681908806724</v>
+      </c>
+      <c r="D7">
+        <v>49282.045471909863</v>
+      </c>
+      <c r="E7">
+        <v>10.805315104112895</v>
+      </c>
+      <c r="F7">
+        <v>10.813932647806263</v>
+      </c>
+      <c r="G7">
+        <v>0.39096526132797738</v>
+      </c>
+      <c r="H7">
+        <v>0.39046487898810101</v>
+      </c>
+      <c r="I7">
+        <v>0.4396061491466623</v>
+      </c>
+      <c r="J7">
+        <v>0.39697738846553288</v>
+      </c>
+      <c r="K7">
+        <v>0.39415902168234263</v>
+      </c>
+      <c r="L7">
+        <v>0.43521657342873538</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>48219.313024445699</v>
+      </c>
+      <c r="C8">
+        <v>8325.9509317625198</v>
+      </c>
+      <c r="D8">
+        <v>48344.478195002586</v>
+      </c>
+      <c r="E8">
+        <v>10.786107288047397</v>
+      </c>
+      <c r="F8">
+        <v>10.799649142422693</v>
+      </c>
+      <c r="G8">
+        <v>0.40311479563589592</v>
+      </c>
+      <c r="H8">
+        <v>0.40234246145998365</v>
+      </c>
+      <c r="I8">
+        <v>0.43519924472138866</v>
+      </c>
+      <c r="J8">
+        <v>0.41001698693079514</v>
+      </c>
+      <c r="K8">
+        <v>0.40566467491456637</v>
+      </c>
+      <c r="L8">
+        <v>0.43048535403773414</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>47707.465851867026</v>
+      </c>
+      <c r="C9">
+        <v>8222.9210333892988</v>
+      </c>
+      <c r="D9">
+        <v>47893.341289960939</v>
+      </c>
+      <c r="E9">
+        <v>10.776731756100217</v>
+      </c>
+      <c r="F9">
+        <v>10.79704453766316</v>
+      </c>
+      <c r="G9">
+        <v>0.40945072174191044</v>
+      </c>
+      <c r="H9">
+        <v>0.40830261159712522</v>
+      </c>
+      <c r="I9">
+        <v>0.43288326608355732</v>
+      </c>
+      <c r="J9">
+        <v>0.4173177613859621</v>
+      </c>
+      <c r="K9">
+        <v>0.41083958017210453</v>
+      </c>
+      <c r="L9">
+        <v>0.42781353132868305</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>47507.199994459195</v>
+      </c>
+      <c r="C10">
+        <v>8164.896896740036</v>
+      </c>
+      <c r="D10">
+        <v>47774.791371354608</v>
+      </c>
+      <c r="E10">
+        <v>10.774253387431903</v>
+      </c>
+      <c r="F10">
+        <v>10.803594071911711</v>
+      </c>
+      <c r="G10">
+        <v>0.41192972278356144</v>
+      </c>
+      <c r="H10">
+        <v>0.41027584244807402</v>
+      </c>
+      <c r="I10">
+        <v>0.43197373434950526</v>
+      </c>
+      <c r="J10">
+        <v>0.42142939442922722</v>
+      </c>
+      <c r="K10">
+        <v>0.41208600193431544</v>
+      </c>
+      <c r="L10">
+        <v>0.42630144961346694</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>47434.336151762582</v>
+      </c>
+      <c r="C11">
+        <v>8113.7060988811027</v>
+      </c>
+      <c r="D11">
+        <v>47808.811353862926</v>
+      </c>
+      <c r="E11">
+        <v>10.774965198917263</v>
+      </c>
+      <c r="F11">
+        <v>10.816042157188994</v>
+      </c>
+      <c r="G11">
+        <v>0.41283167154133293</v>
+      </c>
+      <c r="H11">
+        <v>0.41051625684420778</v>
+      </c>
+      <c r="I11">
+        <v>0.43164233885443404</v>
+      </c>
+      <c r="J11">
+        <v>0.42505681205485646</v>
+      </c>
+      <c r="K11">
+        <v>0.41196820623280761</v>
+      </c>
+      <c r="L11">
+        <v>0.42496297441396064</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>47287.250207360012</v>
+      </c>
+      <c r="C12">
+        <v>8038.6494668908872</v>
+      </c>
+      <c r="D12">
+        <v>47797.046528708423</v>
+      </c>
+      <c r="E12">
+        <v>10.774719025718699</v>
+      </c>
+      <c r="F12">
+        <v>10.830733059725604</v>
+      </c>
+      <c r="G12">
+        <v>0.41465238232406398</v>
+      </c>
+      <c r="H12">
+        <v>0.41149942410669393</v>
+      </c>
+      <c r="I12">
+        <v>0.43097259390922488</v>
+      </c>
+      <c r="J12">
+        <v>0.43037538031077049</v>
+      </c>
+      <c r="K12">
+        <v>0.41253987813561943</v>
+      </c>
+      <c r="L12">
+        <v>0.42299282676434025</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>47211.996415625712</v>
+      </c>
+      <c r="C13">
+        <v>7966.8839761534764</v>
+      </c>
+      <c r="D13">
+        <v>47891.864703857304</v>
+      </c>
+      <c r="E13">
+        <v>10.776700686249042</v>
+      </c>
+      <c r="F13">
+        <v>10.851386064924915</v>
+      </c>
+      <c r="G13">
+        <v>0.4155839195729526</v>
+      </c>
+      <c r="H13">
+        <v>0.41137833964203929</v>
+      </c>
+      <c r="I13">
+        <v>0.43062952693004475</v>
+      </c>
+      <c r="J13">
+        <v>0.43547228247551384</v>
+      </c>
+      <c r="K13">
+        <v>0.41165127667201928</v>
+      </c>
+      <c r="L13">
+        <v>0.42109614125322892</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="true"/>
     <col min="2" max="2" width="15.5703125" customWidth="true"/>
-    <col min="3" max="3" width="15.85546875" customWidth="true"/>
-    <col min="4" max="4" width="15.85546875" customWidth="true"/>
-    <col min="5" max="5" width="15.85546875" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="12.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="3" max="5" width="15.85546875" customWidth="true"/>
+    <col min="6" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="9" width="12.7109375" customWidth="true"/>
     <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="11" width="12.7109375" customWidth="true"/>
-    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="11" max="12" width="12.7109375" customWidth="true"/>
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>140</v>
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0">
+      <c r="A2">
         <v>8</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>0.10000000149011612</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>180454424576</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2">
         <v>31225214976</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2">
         <v>180826210304</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2">
         <v>25.920801162719727</v>
       </c>
-      <c r="G2" s="0">
+      <c r="G2">
         <v>25.931552886962891</v>
       </c>
-      <c r="H2" s="0">
+      <c r="H2">
         <v>0.54455399513244629</v>
       </c>
-      <c r="I2" s="0">
+      <c r="I2">
         <v>0.54408657550811768</v>
       </c>
-      <c r="J2" s="0">
+      <c r="J2">
         <v>841.9139404296875</v>
       </c>
-      <c r="K2" s="0">
+      <c r="K2">
         <v>0.54947173595428467</v>
       </c>
-      <c r="L2" s="0">
+      <c r="L2">
         <v>0.54683911800384521</v>
       </c>
-      <c r="M2" s="0">
+      <c r="M2">
         <v>833.67138671875</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" s="0">
-        <v>0.0099999997764825821</v>
-      </c>
-      <c r="C3" s="0">
+      <c r="B3">
+        <v>9.9999997764825821E-3</v>
+      </c>
+      <c r="C3">
         <v>181130248192</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3">
         <v>31335268352</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3">
         <v>181479194624</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3">
         <v>25.924406051635742</v>
       </c>
-      <c r="G3" s="0">
+      <c r="G3">
         <v>25.934459686279297</v>
       </c>
-      <c r="H3" s="0">
+      <c r="H3">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J3" s="0">
+      <c r="J3">
         <v>843.48358154296875</v>
       </c>
-      <c r="K3" s="0">
+      <c r="K3">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M3" s="0">
+      <c r="M3">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0">
+      <c r="A4">
         <v>8</v>
       </c>
-      <c r="B4" s="0">
-        <v>0.0010000000474974513</v>
-      </c>
-      <c r="C4" s="0">
+      <c r="B4">
+        <v>1.0000000474974513E-3</v>
+      </c>
+      <c r="C4">
         <v>181130231808</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4">
         <v>31335268352</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4">
         <v>181479178240</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4">
         <v>25.924406051635742</v>
       </c>
-      <c r="G4" s="0">
+      <c r="G4">
         <v>25.934459686279297</v>
       </c>
-      <c r="H4" s="0">
+      <c r="H4">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J4" s="0">
+      <c r="J4">
         <v>843.48358154296875</v>
       </c>
-      <c r="K4" s="0">
+      <c r="K4">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L4" s="0">
+      <c r="L4">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M4" s="0">
+      <c r="M4">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0">
+      <c r="A5">
         <v>8</v>
       </c>
-      <c r="B5" s="0">
-        <v>9.9999997473787516e-05</v>
-      </c>
-      <c r="C5" s="0">
+      <c r="B5">
+        <v>9.9999997473787516E-5</v>
+      </c>
+      <c r="C5">
         <v>181130231808</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5">
         <v>31335266304</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5">
         <v>181479178240</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5">
         <v>25.924406051635742</v>
       </c>
-      <c r="G5" s="0">
+      <c r="G5">
         <v>25.934459686279297</v>
       </c>
-      <c r="H5" s="0">
+      <c r="H5">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J5" s="0">
+      <c r="J5">
         <v>843.48358154296875</v>
       </c>
-      <c r="K5" s="0">
+      <c r="K5">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L5" s="0">
+      <c r="L5">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M5" s="0">
+      <c r="M5">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="0">
-        <v>9.9999997473787516e-06</v>
-      </c>
-      <c r="C6" s="0">
+      <c r="B6">
+        <v>9.9999997473787516E-6</v>
+      </c>
+      <c r="C6">
         <v>181130231808</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6">
         <v>31335249920</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6">
         <v>181479178240</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6">
         <v>25.924406051635742</v>
       </c>
-      <c r="G6" s="0">
+      <c r="G6">
         <v>25.934459686279297</v>
       </c>
-      <c r="H6" s="0">
+      <c r="H6">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J6" s="0">
+      <c r="J6">
         <v>843.48358154296875</v>
       </c>
-      <c r="K6" s="0">
+      <c r="K6">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L6" s="0">
+      <c r="L6">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M6" s="0">
+      <c r="M6">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0">
+      <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="0">
-        <v>9.9999999747524271e-07</v>
-      </c>
-      <c r="C7" s="0">
+      <c r="B7">
+        <v>9.9999999747524271E-7</v>
+      </c>
+      <c r="C7">
         <v>181130248192</v>
       </c>
-      <c r="D7" s="0">
+      <c r="D7">
         <v>31335268352</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7">
         <v>181479194624</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7">
         <v>25.924406051635742</v>
       </c>
-      <c r="G7" s="0">
+      <c r="G7">
         <v>25.934459686279297</v>
       </c>
-      <c r="H7" s="0">
+      <c r="H7">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J7" s="0">
+      <c r="J7">
         <v>843.48358154296875</v>
       </c>
-      <c r="K7" s="0">
+      <c r="K7">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L7" s="0">
+      <c r="L7">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M7" s="0">
+      <c r="M7">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="0">
-        <v>1.0000000116860974e-07</v>
-      </c>
-      <c r="C8" s="0">
+      <c r="B8">
+        <v>1.0000000116860974E-7</v>
+      </c>
+      <c r="C8">
         <v>181130248192</v>
       </c>
-      <c r="D8" s="0">
+      <c r="D8">
         <v>31335251968</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8">
         <v>181479194624</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8">
         <v>25.924406051635742</v>
       </c>
-      <c r="G8" s="0">
+      <c r="G8">
         <v>25.934459686279297</v>
       </c>
-      <c r="H8" s="0">
+      <c r="H8">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I8" s="0">
+      <c r="I8">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J8" s="0">
+      <c r="J8">
         <v>843.48358154296875</v>
       </c>
-      <c r="K8" s="0">
+      <c r="K8">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L8" s="0">
+      <c r="L8">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M8" s="0">
+      <c r="M8">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="0">
-        <v>9.9999999392252903e-09</v>
-      </c>
-      <c r="C9" s="0">
+      <c r="B9">
+        <v>9.9999999392252903E-9</v>
+      </c>
+      <c r="C9">
         <v>181130248192</v>
       </c>
-      <c r="D9" s="0">
+      <c r="D9">
         <v>31335268352</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9">
         <v>181479194624</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9">
         <v>25.924406051635742</v>
       </c>
-      <c r="G9" s="0">
+      <c r="G9">
         <v>25.934459686279297</v>
       </c>
-      <c r="H9" s="0">
+      <c r="H9">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I9" s="0">
+      <c r="I9">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J9" s="0">
+      <c r="J9">
         <v>843.48358154296875</v>
       </c>
-      <c r="K9" s="0">
+      <c r="K9">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L9" s="0">
+      <c r="L9">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M9" s="0">
+      <c r="M9">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="0">
-        <v>9.9999997171806854e-10</v>
-      </c>
-      <c r="C10" s="0">
+      <c r="B10">
+        <v>9.9999997171806854E-10</v>
+      </c>
+      <c r="C10">
         <v>181130248192</v>
       </c>
-      <c r="D10" s="0">
+      <c r="D10">
         <v>31335266304</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10">
         <v>181479194624</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10">
         <v>25.924406051635742</v>
       </c>
-      <c r="G10" s="0">
+      <c r="G10">
         <v>25.934459686279297</v>
       </c>
-      <c r="H10" s="0">
+      <c r="H10">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I10" s="0">
+      <c r="I10">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J10" s="0">
+      <c r="J10">
         <v>843.48358154296875</v>
       </c>
-      <c r="K10" s="0">
+      <c r="K10">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L10" s="0">
+      <c r="L10">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M10" s="0">
+      <c r="M10">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="0">
-        <v>1.000000013351432e-10</v>
-      </c>
-      <c r="C11" s="0">
+      <c r="B11">
+        <v>1.000000013351432E-10</v>
+      </c>
+      <c r="C11">
         <v>181130231808</v>
       </c>
-      <c r="D11" s="0">
+      <c r="D11">
         <v>31335266304</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11">
         <v>181479178240</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11">
         <v>25.924406051635742</v>
       </c>
-      <c r="G11" s="0">
+      <c r="G11">
         <v>25.934459686279297</v>
       </c>
-      <c r="H11" s="0">
+      <c r="H11">
         <v>0.54285407066345215</v>
       </c>
-      <c r="I11" s="0">
+      <c r="I11">
         <v>0.54241549968719482</v>
       </c>
-      <c r="J11" s="0">
+      <c r="J11">
         <v>843.48358154296875</v>
       </c>
-      <c r="K11" s="0">
+      <c r="K11">
         <v>0.5478670597076416</v>
       </c>
-      <c r="L11" s="0">
+      <c r="L11">
         <v>0.54539811611175537</v>
       </c>
-      <c r="M11" s="0">
+      <c r="M11">
         <v>835.154541015625</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="0">
+      <c r="B12">
         <v>0.10000000149011612</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C12">
         <v>202506731520</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D12">
         <v>35024863232</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12">
         <v>202707271680</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12">
         <v>26.035028457641602</v>
       </c>
-      <c r="G12" s="0">
+      <c r="G12">
         <v>26.040199279785156</v>
       </c>
-      <c r="H12" s="0">
+      <c r="H12">
         <v>0.48891419172286987</v>
       </c>
-      <c r="I12" s="0">
+      <c r="I12">
         <v>0.48866313695907593</v>
       </c>
-      <c r="J12" s="0">
+      <c r="J12">
         <v>891.85888671875</v>
       </c>
-      <c r="K12" s="0">
+      <c r="K12">
         <v>0.49465566873550415</v>
       </c>
-      <c r="L12" s="0">
+      <c r="L12">
         <v>0.49324572086334229</v>
       </c>
-      <c r="M12" s="0">
+      <c r="M12">
         <v>882.93341064453125</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0">
+      <c r="A13">
         <v>8</v>
       </c>
-      <c r="B13" s="0">
+      <c r="B13">
         <v>0.10000000149011612</v>
       </c>
-      <c r="C13" s="0">
+      <c r="C13">
         <v>179934314496</v>
       </c>
-      <c r="D13" s="0">
+      <c r="D13">
         <v>31132344320</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13">
         <v>180305035264</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13">
         <v>25.917915344238281</v>
       </c>
-      <c r="G13" s="0">
+      <c r="G13">
         <v>25.928667068481445</v>
       </c>
-      <c r="H13" s="0">
+      <c r="H13">
         <v>0.54590988159179688</v>
       </c>
-      <c r="I13" s="0">
+      <c r="I13">
         <v>0.54544389247894287</v>
       </c>
-      <c r="J13" s="0">
+      <c r="J13">
         <v>840.6595458984375</v>
       </c>
-      <c r="K13" s="0">
+      <c r="K13">
         <v>0.55089980363845825</v>
       </c>
-      <c r="L13" s="0">
+      <c r="L13">
         <v>0.54827553033828735</v>
       </c>
-      <c r="M13" s="0">
+      <c r="M13">
         <v>832.34869384765625</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/model/optimization/matlab/opti-ide-val-single-precision.xlsx
+++ b/model/optimization/matlab/opti-ide-val-single-precision.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Il mio Drive\Tesi magistrale\Python\CTM-s\model\optimization\matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\Uni\LM II anno\Tesi\python\CTM-s\model\optimization\matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D4979-ED8D-4F6E-9FEA-26CAE59D9A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD36C0A1-B719-45C5-9F5F-F353A7038B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10920" yWindow="630" windowWidth="21480" windowHeight="14745"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="shallow - integral delta" sheetId="2" r:id="rId1"/>
     <sheet name="shallow - pi" sheetId="4" r:id="rId2"/>
-    <sheet name="deep - integral delta" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">'shallow - integral delta'!$A$1:$L$12</definedName>
@@ -25,48 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>grado</t>
-  </si>
-  <si>
-    <t>SSR_ide</t>
-  </si>
-  <si>
-    <t>SSR_val</t>
-  </si>
-  <si>
-    <t>Val_FPE</t>
-  </si>
-  <si>
-    <t>Val_AIC</t>
-  </si>
-  <si>
-    <t>Val_MDL</t>
-  </si>
-  <si>
-    <t>R2_ide</t>
-  </si>
-  <si>
-    <t>R2a_ide</t>
-  </si>
-  <si>
-    <t>RMSE_ide</t>
-  </si>
-  <si>
-    <t>R2_val</t>
-  </si>
-  <si>
-    <t>R2a_val</t>
-  </si>
-  <si>
-    <t>RMSE_val</t>
-  </si>
-  <si>
-    <t>grado</t>
-  </si>
-  <si>
-    <t>tol</t>
   </si>
   <si>
     <t>SSR_ide</t>
@@ -521,60 +481,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F060BD-F3C0-4984-9D17-53A8B75E98F2}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="true" customWidth="true"/>
-    <col min="2" max="4" width="15.85546875" customWidth="true"/>
-    <col min="5" max="6" width="11.7109375" customWidth="true"/>
-    <col min="7" max="8" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="3.140625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="15.85546875" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
     <col min="9" max="9" width="11.7109375" customWidth="true"/>
-    <col min="10" max="11" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
     <col min="12" max="12" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.85546875" customWidth="true"/>
+    <col min="4" max="4" width="15.85546875" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+      <c r="A1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -1031,6 +996,462 @@
       </c>
       <c r="L13">
         <v>874.75543212890625</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0">
+        <v>334121107456</v>
+      </c>
+      <c r="C14" s="0">
+        <v>58209673216</v>
+      </c>
+      <c r="D14" s="0">
+        <v>334134231500.33282</v>
+      </c>
+      <c r="E14" s="0">
+        <v>26.53480863990622</v>
+      </c>
+      <c r="F14" s="0">
+        <v>26.535013819517967</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.15674145544850715</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.15672820640524021</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1145.5909793311953</v>
+      </c>
+      <c r="J14" s="0">
+        <v>0.16013536311979082</v>
+      </c>
+      <c r="K14" s="0">
+        <v>0.16006058052407102</v>
+      </c>
+      <c r="L14" s="0">
+        <v>1138.253575605459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0">
+        <v>280598478848</v>
+      </c>
+      <c r="C15" s="0">
+        <v>48961675264</v>
+      </c>
+      <c r="D15" s="0">
+        <v>280631545285.1308</v>
+      </c>
+      <c r="E15" s="0">
+        <v>26.360308419126717</v>
+      </c>
+      <c r="F15" s="0">
+        <v>26.360923957961958</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.29182266334833973</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.29178371842121309</v>
+      </c>
+      <c r="I15" s="0">
+        <v>1049.8330048638575</v>
+      </c>
+      <c r="J15" s="0">
+        <v>0.29356794577469325</v>
+      </c>
+      <c r="K15" s="0">
+        <v>0.29334774118450435</v>
+      </c>
+      <c r="L15" s="0">
+        <v>1043.9256630747088</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0">
+        <v>243857276928</v>
+      </c>
+      <c r="C16" s="0">
+        <v>42540834816</v>
+      </c>
+      <c r="D16" s="0">
+        <v>243924334637.60907</v>
+      </c>
+      <c r="E16" s="0">
+        <v>26.220123910201487</v>
+      </c>
+      <c r="F16" s="0">
+        <v>26.221560167483716</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.38455042923593863</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.38446822648603995</v>
+      </c>
+      <c r="I16" s="0">
+        <v>978.69066640953258</v>
+      </c>
+      <c r="J16" s="0">
+        <v>0.3862092146575431</v>
+      </c>
+      <c r="K16" s="0">
+        <v>0.38574435628983228</v>
+      </c>
+      <c r="L16" s="0">
+        <v>973.07106273137094</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>4</v>
+      </c>
+      <c r="B17" s="0">
+        <v>217377406976</v>
+      </c>
+      <c r="C17" s="0">
+        <v>37754109952</v>
+      </c>
+      <c r="D17" s="0">
+        <v>217496975567.22839</v>
+      </c>
+      <c r="E17" s="0">
+        <v>26.105450781926582</v>
+      </c>
+      <c r="F17" s="0">
+        <v>26.108323296491037</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.45138062821342873</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.45123189947228537</v>
+      </c>
+      <c r="I17" s="0">
+        <v>924.02725060127921</v>
+      </c>
+      <c r="J17" s="0">
+        <v>0.45527635331583205</v>
+      </c>
+      <c r="K17" s="0">
+        <v>0.45443846639217944</v>
+      </c>
+      <c r="L17" s="0">
+        <v>916.68999179700631</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" s="0">
+        <v>202200875008</v>
+      </c>
+      <c r="C18" s="0">
+        <v>35020423168</v>
+      </c>
+      <c r="D18" s="0">
+        <v>202401116378.17133</v>
+      </c>
+      <c r="E18" s="0">
+        <v>26.033517289966124</v>
+      </c>
+      <c r="F18" s="0">
+        <v>26.038687816182147</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.48968424594519</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.48943356621093537</v>
+      </c>
+      <c r="I18" s="0">
+        <v>891.18670276972716</v>
+      </c>
+      <c r="J18" s="0">
+        <v>0.49470861873156446</v>
+      </c>
+      <c r="K18" s="0">
+        <v>0.4932988284842863</v>
+      </c>
+      <c r="L18" s="0">
+        <v>882.88740395442142</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>6</v>
+      </c>
+      <c r="B19" s="0">
+        <v>191758024704</v>
+      </c>
+      <c r="C19" s="0">
+        <v>33138937856</v>
+      </c>
+      <c r="D19" s="0">
+        <v>192074628749.78815</v>
+      </c>
+      <c r="E19" s="0">
+        <v>25.981149824484262</v>
+      </c>
+      <c r="F19" s="0">
+        <v>25.989767368177635</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.51605855940375056</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.51566095359404462</v>
+      </c>
+      <c r="I19" s="0">
+        <v>867.85189571833928</v>
+      </c>
+      <c r="J19" s="0">
+        <v>0.52188894691652754</v>
+      </c>
+      <c r="K19" s="0">
+        <v>0.51965438342767634</v>
+      </c>
+      <c r="L19" s="0">
+        <v>858.81331188974741</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>7</v>
+      </c>
+      <c r="B20" s="0">
+        <v>183374397440</v>
+      </c>
+      <c r="C20" s="0">
+        <v>31647254528</v>
+      </c>
+      <c r="D20" s="0">
+        <v>183850391109.16962</v>
+      </c>
+      <c r="E20" s="0">
+        <v>25.937388170567143</v>
+      </c>
+      <c r="F20" s="0">
+        <v>25.950930024942437</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.53719061874814011</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.53659177076286557</v>
+      </c>
+      <c r="I20" s="0">
+        <v>848.6923485828695</v>
+      </c>
+      <c r="J20" s="0">
+        <v>0.54337963011876522</v>
+      </c>
+      <c r="K20" s="0">
+        <v>0.54001113597797579</v>
+      </c>
+      <c r="L20" s="0">
+        <v>839.28993760481762</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>8</v>
+      </c>
+      <c r="B21" s="0">
+        <v>178172772352</v>
+      </c>
+      <c r="C21" s="0">
+        <v>30756974592</v>
+      </c>
+      <c r="D21" s="0">
+        <v>178866960180.38239</v>
+      </c>
+      <c r="E21" s="0">
+        <v>25.909908122332283</v>
+      </c>
+      <c r="F21" s="0">
+        <v>25.930220903895229</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.55041189206902819</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.54953783009538071</v>
+      </c>
+      <c r="I21" s="0">
+        <v>836.4820339504804</v>
+      </c>
+      <c r="J21" s="0">
+        <v>0.55693768585631276</v>
+      </c>
+      <c r="K21" s="0">
+        <v>0.55201177981379979</v>
+      </c>
+      <c r="L21" s="0">
+        <v>826.73587062674756</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>9</v>
+      </c>
+      <c r="B22" s="0">
+        <v>189439148032</v>
+      </c>
+      <c r="C22" s="0">
+        <v>33165860864</v>
+      </c>
+      <c r="D22" s="0">
+        <v>190506192237.20868</v>
+      </c>
+      <c r="E22" s="0">
+        <v>25.972950521400001</v>
+      </c>
+      <c r="F22" s="0">
+        <v>26.002291205879807</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.55447762287715507</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.55322464219254908</v>
+      </c>
+      <c r="I22" s="0">
+        <v>832.69119241353906</v>
+      </c>
+      <c r="J22" s="0">
+        <v>0.56236143178785269</v>
+      </c>
+      <c r="K22" s="0">
+        <v>0.55529396435285672</v>
+      </c>
+      <c r="L22" s="0">
+        <v>821.66004658683858</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>10</v>
+      </c>
+      <c r="B23" s="0">
+        <v>636179054592</v>
+      </c>
+      <c r="C23" s="0">
+        <v>194653290496</v>
+      </c>
+      <c r="D23" s="0">
+        <v>641201434989.14807</v>
+      </c>
+      <c r="E23" s="0">
+        <v>27.186609455132594</v>
+      </c>
+      <c r="F23" s="0">
+        <v>27.227686413404324</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.55728818781926659</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.55554241682510375</v>
+      </c>
+      <c r="I23" s="0">
+        <v>830.06053292052354</v>
+      </c>
+      <c r="J23" s="0">
+        <v>0.5666738714682068</v>
+      </c>
+      <c r="K23" s="0">
+        <v>0.5568091839518321</v>
+      </c>
+      <c r="L23" s="0">
+        <v>817.60175295876138</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>11</v>
+      </c>
+      <c r="B24" s="0">
+        <v>78985438429184</v>
+      </c>
+      <c r="C24" s="0">
+        <v>4300259501015040</v>
+      </c>
+      <c r="D24" s="0">
+        <v>79836967874747.359</v>
+      </c>
+      <c r="E24" s="0">
+        <v>32.011007666940344</v>
+      </c>
+      <c r="F24" s="0">
+        <v>32.067021700947251</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.5581203034420037</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.55574013108240106</v>
+      </c>
+      <c r="I24" s="0">
+        <v>829.28008028249849</v>
+      </c>
+      <c r="J24" s="0">
+        <v>0.5703258446054924</v>
+      </c>
+      <c r="K24" s="0">
+        <v>0.55687232790650221</v>
+      </c>
+      <c r="L24" s="0">
+        <v>814.14918325796145</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>12</v>
+      </c>
+      <c r="B25" s="0">
+        <v>2.3047598935033113e+22</v>
+      </c>
+      <c r="C25" s="0">
+        <v>8.8247079935203867e+22</v>
+      </c>
+      <c r="D25" s="0">
+        <v>2.3379491945823548e+22</v>
+      </c>
+      <c r="E25" s="0">
+        <v>51.506145934835182</v>
+      </c>
+      <c r="F25" s="0">
+        <v>51.580831313511055</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.55885545424398675</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.55568088614020072</v>
+      </c>
+      <c r="I25" s="0">
+        <v>828.58996066687826</v>
+      </c>
+      <c r="J25" s="0">
+        <v>0.57343995041759144</v>
+      </c>
+      <c r="K25" s="0">
+        <v>0.55544067580057366</v>
+      </c>
+      <c r="L25" s="0">
+        <v>811.19350488145221</v>
       </c>
     </row>
   </sheetData>
@@ -1044,544 +1465,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C567F60-795F-49CB-ACE4-C3AE2E1479D7}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="2" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="8" width="13.7109375" customWidth="true"/>
+    <col min="9" max="10" width="12.7109375" customWidth="true"/>
     <col min="11" max="11" width="13.7109375" customWidth="true"/>
     <col min="12" max="12" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
-    <col min="4" max="4" width="11.7109375" customWidth="true"/>
-    <col min="5" max="5" width="11.7109375" customWidth="true"/>
-    <col min="6" max="6" width="11.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="12.7109375" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>76874.665575768508</v>
-      </c>
-      <c r="C2">
-        <v>13403.398840586055</v>
-      </c>
-      <c r="D2">
-        <v>76877.685159076995</v>
-      </c>
-      <c r="E2">
-        <v>11.249970933397377</v>
-      </c>
-      <c r="F2">
-        <v>11.250176113009124</v>
-      </c>
-      <c r="G2">
-        <v>4.8403065191870875E-2</v>
-      </c>
-      <c r="H2">
-        <v>4.8388113966006174E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.54950195687430747</v>
-      </c>
-      <c r="J2">
-        <v>5.0225289801945183E-2</v>
-      </c>
-      <c r="K2">
-        <v>5.0140720676089989E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.54619651828542226</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>66170.988754588296</v>
-      </c>
-      <c r="C3">
-        <v>11566.344984161429</v>
-      </c>
-      <c r="D3">
-        <v>66178.786511898026</v>
-      </c>
-      <c r="E3">
-        <v>11.100115245131745</v>
-      </c>
-      <c r="F3">
-        <v>11.100730783966986</v>
-      </c>
-      <c r="G3">
-        <v>0.18089906992796412</v>
-      </c>
-      <c r="H3">
-        <v>0.1808540249591688</v>
-      </c>
-      <c r="I3">
-        <v>0.50981362225278015</v>
-      </c>
-      <c r="J3">
-        <v>0.1804002786130382</v>
-      </c>
-      <c r="K3">
-        <v>0.18014479810406714</v>
-      </c>
-      <c r="L3">
-        <v>0.5073872243263281</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>58764.358179777009</v>
-      </c>
-      <c r="C4">
-        <v>10270.604831209368</v>
-      </c>
-      <c r="D4">
-        <v>58780.517645329252</v>
-      </c>
-      <c r="E4">
-        <v>10.981565746419799</v>
-      </c>
-      <c r="F4">
-        <v>10.983002003702026</v>
-      </c>
-      <c r="G4">
-        <v>0.27258242099632313</v>
-      </c>
-      <c r="H4">
-        <v>0.27248526319792787</v>
-      </c>
-      <c r="I4">
-        <v>0.48043498195398021</v>
-      </c>
-      <c r="J4">
-        <v>0.27221737984974392</v>
-      </c>
-      <c r="K4">
-        <v>0.27166618903859052</v>
-      </c>
-      <c r="L4">
-        <v>0.47812281392554068</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>53542.562938047107</v>
-      </c>
-      <c r="C5">
-        <v>9316.5091774987595</v>
-      </c>
-      <c r="D5">
-        <v>53572.01406137368</v>
-      </c>
-      <c r="E5">
-        <v>10.888782084969298</v>
-      </c>
-      <c r="F5">
-        <v>10.891654599533753</v>
-      </c>
-      <c r="G5">
-        <v>0.33722067742331674</v>
-      </c>
-      <c r="H5">
-        <v>0.33704100032955742</v>
-      </c>
-      <c r="I5">
-        <v>0.45859276790416709</v>
-      </c>
-      <c r="J5">
-        <v>0.33982530033184244</v>
-      </c>
-      <c r="K5">
-        <v>0.33880982807991178</v>
-      </c>
-      <c r="L5">
-        <v>0.45537382642464086</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>50780.17777311393</v>
-      </c>
-      <c r="C6">
-        <v>8809.6021579494518</v>
-      </c>
-      <c r="D6">
-        <v>50830.465846172119</v>
-      </c>
-      <c r="E6">
-        <v>10.836251175106101</v>
-      </c>
-      <c r="F6">
-        <v>10.841421701322123</v>
-      </c>
-      <c r="G6">
-        <v>0.37141500186066667</v>
-      </c>
-      <c r="H6">
-        <v>0.37110622534526816</v>
-      </c>
-      <c r="I6">
-        <v>0.44660618377362671</v>
-      </c>
-      <c r="J6">
-        <v>0.37574510495124203</v>
-      </c>
-      <c r="K6">
-        <v>0.37400340007464961</v>
-      </c>
-      <c r="L6">
-        <v>0.44281222782789736</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>49200.811968647715</v>
-      </c>
-      <c r="C7">
-        <v>8509.9681908806724</v>
-      </c>
-      <c r="D7">
-        <v>49282.045471909863</v>
-      </c>
-      <c r="E7">
-        <v>10.805315104112895</v>
-      </c>
-      <c r="F7">
-        <v>10.813932647806263</v>
-      </c>
-      <c r="G7">
-        <v>0.39096526132797738</v>
-      </c>
-      <c r="H7">
-        <v>0.39046487898810101</v>
-      </c>
-      <c r="I7">
-        <v>0.4396061491466623</v>
-      </c>
-      <c r="J7">
-        <v>0.39697738846553288</v>
-      </c>
-      <c r="K7">
-        <v>0.39415902168234263</v>
-      </c>
-      <c r="L7">
-        <v>0.43521657342873538</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>48219.313024445699</v>
-      </c>
-      <c r="C8">
-        <v>8325.9509317625198</v>
-      </c>
-      <c r="D8">
-        <v>48344.478195002586</v>
-      </c>
-      <c r="E8">
-        <v>10.786107288047397</v>
-      </c>
-      <c r="F8">
-        <v>10.799649142422693</v>
-      </c>
-      <c r="G8">
-        <v>0.40311479563589592</v>
-      </c>
-      <c r="H8">
-        <v>0.40234246145998365</v>
-      </c>
-      <c r="I8">
-        <v>0.43519924472138866</v>
-      </c>
-      <c r="J8">
-        <v>0.41001698693079514</v>
-      </c>
-      <c r="K8">
-        <v>0.40566467491456637</v>
-      </c>
-      <c r="L8">
-        <v>0.43048535403773414</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>47707.465851867026</v>
-      </c>
-      <c r="C9">
-        <v>8222.9210333892988</v>
-      </c>
-      <c r="D9">
-        <v>47893.341289960939</v>
-      </c>
-      <c r="E9">
-        <v>10.776731756100217</v>
-      </c>
-      <c r="F9">
-        <v>10.79704453766316</v>
-      </c>
-      <c r="G9">
-        <v>0.40945072174191044</v>
-      </c>
-      <c r="H9">
-        <v>0.40830261159712522</v>
-      </c>
-      <c r="I9">
-        <v>0.43288326608355732</v>
-      </c>
-      <c r="J9">
-        <v>0.4173177613859621</v>
-      </c>
-      <c r="K9">
-        <v>0.41083958017210453</v>
-      </c>
-      <c r="L9">
-        <v>0.42781353132868305</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>47507.199994459195</v>
-      </c>
-      <c r="C10">
-        <v>8164.896896740036</v>
-      </c>
-      <c r="D10">
-        <v>47774.791371354608</v>
-      </c>
-      <c r="E10">
-        <v>10.774253387431903</v>
-      </c>
-      <c r="F10">
-        <v>10.803594071911711</v>
-      </c>
-      <c r="G10">
-        <v>0.41192972278356144</v>
-      </c>
-      <c r="H10">
-        <v>0.41027584244807402</v>
-      </c>
-      <c r="I10">
-        <v>0.43197373434950526</v>
-      </c>
-      <c r="J10">
-        <v>0.42142939442922722</v>
-      </c>
-      <c r="K10">
-        <v>0.41208600193431544</v>
-      </c>
-      <c r="L10">
-        <v>0.42630144961346694</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>47434.336151762582</v>
-      </c>
-      <c r="C11">
-        <v>8113.7060988811027</v>
-      </c>
-      <c r="D11">
-        <v>47808.811353862926</v>
-      </c>
-      <c r="E11">
-        <v>10.774965198917263</v>
-      </c>
-      <c r="F11">
-        <v>10.816042157188994</v>
-      </c>
-      <c r="G11">
-        <v>0.41283167154133293</v>
-      </c>
-      <c r="H11">
-        <v>0.41051625684420778</v>
-      </c>
-      <c r="I11">
-        <v>0.43164233885443404</v>
-      </c>
-      <c r="J11">
-        <v>0.42505681205485646</v>
-      </c>
-      <c r="K11">
-        <v>0.41196820623280761</v>
-      </c>
-      <c r="L11">
-        <v>0.42496297441396064</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>47287.250207360012</v>
-      </c>
-      <c r="C12">
-        <v>8038.6494668908872</v>
-      </c>
-      <c r="D12">
-        <v>47797.046528708423</v>
-      </c>
-      <c r="E12">
-        <v>10.774719025718699</v>
-      </c>
-      <c r="F12">
-        <v>10.830733059725604</v>
-      </c>
-      <c r="G12">
-        <v>0.41465238232406398</v>
-      </c>
-      <c r="H12">
-        <v>0.41149942410669393</v>
-      </c>
-      <c r="I12">
-        <v>0.43097259390922488</v>
-      </c>
-      <c r="J12">
-        <v>0.43037538031077049</v>
-      </c>
-      <c r="K12">
-        <v>0.41253987813561943</v>
-      </c>
-      <c r="L12">
-        <v>0.42299282676434025</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>47211.996415625712</v>
-      </c>
-      <c r="C13">
-        <v>7966.8839761534764</v>
-      </c>
-      <c r="D13">
-        <v>47891.864703857304</v>
-      </c>
-      <c r="E13">
-        <v>10.776700686249042</v>
-      </c>
-      <c r="F13">
-        <v>10.851386064924915</v>
-      </c>
-      <c r="G13">
-        <v>0.4155839195729526</v>
-      </c>
-      <c r="H13">
-        <v>0.41137833964203929</v>
-      </c>
-      <c r="I13">
-        <v>0.43062952693004475</v>
-      </c>
-      <c r="J13">
-        <v>0.43547228247551384</v>
-      </c>
-      <c r="K13">
-        <v>0.41165127667201928</v>
-      </c>
-      <c r="L13">
-        <v>0.42109614125322892</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="true"/>
-    <col min="2" max="2" width="15.5703125" customWidth="true"/>
-    <col min="3" max="5" width="15.85546875" customWidth="true"/>
-    <col min="6" max="7" width="11.7109375" customWidth="true"/>
-    <col min="8" max="9" width="12.7109375" customWidth="true"/>
-    <col min="10" max="10" width="11.7109375" customWidth="true"/>
-    <col min="11" max="12" width="12.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1621,295 +1519,271 @@
       <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.10000000149011612</v>
+        <v>76874.665575768508</v>
       </c>
       <c r="C2">
-        <v>180454424576</v>
+        <v>13403.398840586055</v>
       </c>
       <c r="D2">
-        <v>31225214976</v>
+        <v>76877.685159076995</v>
       </c>
       <c r="E2">
-        <v>180826210304</v>
+        <v>11.249970933397377</v>
       </c>
       <c r="F2">
-        <v>25.920801162719727</v>
+        <v>11.250176113009124</v>
       </c>
       <c r="G2">
-        <v>25.931552886962891</v>
+        <v>4.8403065191870875E-2</v>
       </c>
       <c r="H2">
-        <v>0.54455399513244629</v>
+        <v>4.8388113966006174E-2</v>
       </c>
       <c r="I2">
-        <v>0.54408657550811768</v>
+        <v>0.54950195687430747</v>
       </c>
       <c r="J2">
-        <v>841.9139404296875</v>
+        <v>5.0225289801945183E-2</v>
       </c>
       <c r="K2">
-        <v>0.54947173595428467</v>
+        <v>5.0140720676089989E-2</v>
       </c>
       <c r="L2">
-        <v>0.54683911800384521</v>
-      </c>
-      <c r="M2">
-        <v>833.67138671875</v>
+        <v>0.54619651828542226</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>9.9999997764825821E-3</v>
+        <v>66170.988754588296</v>
       </c>
       <c r="C3">
-        <v>181130248192</v>
+        <v>11566.344984161429</v>
       </c>
       <c r="D3">
-        <v>31335268352</v>
+        <v>66178.786511898026</v>
       </c>
       <c r="E3">
-        <v>181479194624</v>
+        <v>11.100115245131745</v>
       </c>
       <c r="F3">
-        <v>25.924406051635742</v>
+        <v>11.100730783966986</v>
       </c>
       <c r="G3">
-        <v>25.934459686279297</v>
+        <v>0.18089906992796412</v>
       </c>
       <c r="H3">
-        <v>0.54285407066345215</v>
+        <v>0.1808540249591688</v>
       </c>
       <c r="I3">
-        <v>0.54241549968719482</v>
+        <v>0.50981362225278015</v>
       </c>
       <c r="J3">
-        <v>843.48358154296875</v>
+        <v>0.1804002786130382</v>
       </c>
       <c r="K3">
-        <v>0.5478670597076416</v>
+        <v>0.18014479810406714</v>
       </c>
       <c r="L3">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M3">
-        <v>835.154541015625</v>
+        <v>0.5073872243263281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1.0000000474974513E-3</v>
+        <v>58764.358179777009</v>
       </c>
       <c r="C4">
-        <v>181130231808</v>
+        <v>10270.604831209368</v>
       </c>
       <c r="D4">
-        <v>31335268352</v>
+        <v>58780.517645329252</v>
       </c>
       <c r="E4">
-        <v>181479178240</v>
+        <v>10.981565746419799</v>
       </c>
       <c r="F4">
-        <v>25.924406051635742</v>
+        <v>10.983002003702026</v>
       </c>
       <c r="G4">
-        <v>25.934459686279297</v>
+        <v>0.27258242099632313</v>
       </c>
       <c r="H4">
-        <v>0.54285407066345215</v>
+        <v>0.27248526319792787</v>
       </c>
       <c r="I4">
-        <v>0.54241549968719482</v>
+        <v>0.48043498195398021</v>
       </c>
       <c r="J4">
-        <v>843.48358154296875</v>
+        <v>0.27221737984974392</v>
       </c>
       <c r="K4">
-        <v>0.5478670597076416</v>
+        <v>0.27166618903859052</v>
       </c>
       <c r="L4">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M4">
-        <v>835.154541015625</v>
+        <v>0.47812281392554068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>9.9999997473787516E-5</v>
+        <v>53542.562938047107</v>
       </c>
       <c r="C5">
-        <v>181130231808</v>
+        <v>9316.5091774987595</v>
       </c>
       <c r="D5">
-        <v>31335266304</v>
+        <v>53572.01406137368</v>
       </c>
       <c r="E5">
-        <v>181479178240</v>
+        <v>10.888782084969298</v>
       </c>
       <c r="F5">
-        <v>25.924406051635742</v>
+        <v>10.891654599533753</v>
       </c>
       <c r="G5">
-        <v>25.934459686279297</v>
+        <v>0.33722067742331674</v>
       </c>
       <c r="H5">
-        <v>0.54285407066345215</v>
+        <v>0.33704100032955742</v>
       </c>
       <c r="I5">
-        <v>0.54241549968719482</v>
+        <v>0.45859276790416709</v>
       </c>
       <c r="J5">
-        <v>843.48358154296875</v>
+        <v>0.33982530033184244</v>
       </c>
       <c r="K5">
-        <v>0.5478670597076416</v>
+        <v>0.33880982807991178</v>
       </c>
       <c r="L5">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M5">
-        <v>835.154541015625</v>
+        <v>0.45537382642464086</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>9.9999997473787516E-6</v>
+        <v>50780.17777311393</v>
       </c>
       <c r="C6">
-        <v>181130231808</v>
+        <v>8809.6021579494518</v>
       </c>
       <c r="D6">
-        <v>31335249920</v>
+        <v>50830.465846172119</v>
       </c>
       <c r="E6">
-        <v>181479178240</v>
+        <v>10.836251175106101</v>
       </c>
       <c r="F6">
-        <v>25.924406051635742</v>
+        <v>10.841421701322123</v>
       </c>
       <c r="G6">
-        <v>25.934459686279297</v>
+        <v>0.37141500186066667</v>
       </c>
       <c r="H6">
-        <v>0.54285407066345215</v>
+        <v>0.37110622534526816</v>
       </c>
       <c r="I6">
-        <v>0.54241549968719482</v>
+        <v>0.44660618377362671</v>
       </c>
       <c r="J6">
-        <v>843.48358154296875</v>
+        <v>0.37574510495124203</v>
       </c>
       <c r="K6">
-        <v>0.5478670597076416</v>
+        <v>0.37400340007464961</v>
       </c>
       <c r="L6">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M6">
-        <v>835.154541015625</v>
+        <v>0.44281222782789736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>9.9999999747524271E-7</v>
+        <v>49200.811968647715</v>
       </c>
       <c r="C7">
-        <v>181130248192</v>
+        <v>8509.9681908806724</v>
       </c>
       <c r="D7">
-        <v>31335268352</v>
+        <v>49282.045471909863</v>
       </c>
       <c r="E7">
-        <v>181479194624</v>
+        <v>10.805315104112895</v>
       </c>
       <c r="F7">
-        <v>25.924406051635742</v>
+        <v>10.813932647806263</v>
       </c>
       <c r="G7">
-        <v>25.934459686279297</v>
+        <v>0.39096526132797738</v>
       </c>
       <c r="H7">
-        <v>0.54285407066345215</v>
+        <v>0.39046487898810101</v>
       </c>
       <c r="I7">
-        <v>0.54241549968719482</v>
+        <v>0.4396061491466623</v>
       </c>
       <c r="J7">
-        <v>843.48358154296875</v>
+        <v>0.39697738846553288</v>
       </c>
       <c r="K7">
-        <v>0.5478670597076416</v>
+        <v>0.39415902168234263</v>
       </c>
       <c r="L7">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M7">
-        <v>835.154541015625</v>
+        <v>0.43521657342873538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>1.0000000116860974E-7</v>
+        <v>48219.313024445699</v>
       </c>
       <c r="C8">
-        <v>181130248192</v>
+        <v>8325.9509317625198</v>
       </c>
       <c r="D8">
-        <v>31335251968</v>
+        <v>48344.478195002586</v>
       </c>
       <c r="E8">
-        <v>181479194624</v>
+        <v>10.786107288047397</v>
       </c>
       <c r="F8">
-        <v>25.924406051635742</v>
+        <v>10.799649142422693</v>
       </c>
       <c r="G8">
-        <v>25.934459686279297</v>
+        <v>0.40311479563589592</v>
       </c>
       <c r="H8">
-        <v>0.54285407066345215</v>
+        <v>0.40234246145998365</v>
       </c>
       <c r="I8">
-        <v>0.54241549968719482</v>
+        <v>0.43519924472138866</v>
       </c>
       <c r="J8">
-        <v>843.48358154296875</v>
+        <v>0.41001698693079514</v>
       </c>
       <c r="K8">
-        <v>0.5478670597076416</v>
+        <v>0.40566467491456637</v>
       </c>
       <c r="L8">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M8">
-        <v>835.154541015625</v>
+        <v>0.43048535403773414</v>
       </c>
     </row>
     <row r="9">
@@ -1917,204 +1791,189 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>9.9999999392252903E-9</v>
+        <v>47707.465851867026</v>
       </c>
       <c r="C9">
-        <v>181130248192</v>
+        <v>8222.9210333892988</v>
       </c>
       <c r="D9">
-        <v>31335268352</v>
+        <v>47893.341289960939</v>
       </c>
       <c r="E9">
-        <v>181479194624</v>
+        <v>10.776731756100217</v>
       </c>
       <c r="F9">
-        <v>25.924406051635742</v>
+        <v>10.79704453766316</v>
       </c>
       <c r="G9">
-        <v>25.934459686279297</v>
+        <v>0.40945072174191044</v>
       </c>
       <c r="H9">
-        <v>0.54285407066345215</v>
+        <v>0.40830261159712522</v>
       </c>
       <c r="I9">
-        <v>0.54241549968719482</v>
+        <v>0.43288326608355732</v>
       </c>
       <c r="J9">
-        <v>843.48358154296875</v>
+        <v>0.4173177613859621</v>
       </c>
       <c r="K9">
-        <v>0.5478670597076416</v>
+        <v>0.41083958017210453</v>
       </c>
       <c r="L9">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M9">
-        <v>835.154541015625</v>
+        <v>0.42781353132868305</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>9.9999997171806854E-10</v>
+        <v>47507.199994459195</v>
       </c>
       <c r="C10">
-        <v>181130248192</v>
+        <v>8164.896896740036</v>
       </c>
       <c r="D10">
-        <v>31335266304</v>
+        <v>47774.791371354608</v>
       </c>
       <c r="E10">
-        <v>181479194624</v>
+        <v>10.774253387431903</v>
       </c>
       <c r="F10">
-        <v>25.924406051635742</v>
+        <v>10.803594071911711</v>
       </c>
       <c r="G10">
-        <v>25.934459686279297</v>
+        <v>0.41192972278356144</v>
       </c>
       <c r="H10">
-        <v>0.54285407066345215</v>
+        <v>0.41027584244807402</v>
       </c>
       <c r="I10">
-        <v>0.54241549968719482</v>
+        <v>0.43197373434950526</v>
       </c>
       <c r="J10">
-        <v>843.48358154296875</v>
+        <v>0.42142939442922722</v>
       </c>
       <c r="K10">
-        <v>0.5478670597076416</v>
+        <v>0.41208600193431544</v>
       </c>
       <c r="L10">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M10">
-        <v>835.154541015625</v>
+        <v>0.42630144961346694</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>1.000000013351432E-10</v>
+        <v>47434.336151762582</v>
       </c>
       <c r="C11">
-        <v>181130231808</v>
+        <v>8113.7060988811027</v>
       </c>
       <c r="D11">
-        <v>31335266304</v>
+        <v>47808.811353862926</v>
       </c>
       <c r="E11">
-        <v>181479178240</v>
+        <v>10.774965198917263</v>
       </c>
       <c r="F11">
-        <v>25.924406051635742</v>
+        <v>10.816042157188994</v>
       </c>
       <c r="G11">
-        <v>25.934459686279297</v>
+        <v>0.41283167154133293</v>
       </c>
       <c r="H11">
-        <v>0.54285407066345215</v>
+        <v>0.41051625684420778</v>
       </c>
       <c r="I11">
-        <v>0.54241549968719482</v>
+        <v>0.43164233885443404</v>
       </c>
       <c r="J11">
-        <v>843.48358154296875</v>
+        <v>0.42505681205485646</v>
       </c>
       <c r="K11">
-        <v>0.5478670597076416</v>
+        <v>0.41196820623280761</v>
       </c>
       <c r="L11">
-        <v>0.54539811611175537</v>
-      </c>
-      <c r="M11">
-        <v>835.154541015625</v>
+        <v>0.42496297441396064</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.10000000149011612</v>
+        <v>47287.250207360012</v>
       </c>
       <c r="C12">
-        <v>202506731520</v>
+        <v>8038.6494668908872</v>
       </c>
       <c r="D12">
-        <v>35024863232</v>
+        <v>47797.046528708423</v>
       </c>
       <c r="E12">
-        <v>202707271680</v>
+        <v>10.774719025718699</v>
       </c>
       <c r="F12">
-        <v>26.035028457641602</v>
+        <v>10.830733059725604</v>
       </c>
       <c r="G12">
-        <v>26.040199279785156</v>
+        <v>0.41465238232406398</v>
       </c>
       <c r="H12">
-        <v>0.48891419172286987</v>
+        <v>0.41149942410669393</v>
       </c>
       <c r="I12">
-        <v>0.48866313695907593</v>
+        <v>0.43097259390922488</v>
       </c>
       <c r="J12">
-        <v>891.85888671875</v>
+        <v>0.43037538031077049</v>
       </c>
       <c r="K12">
-        <v>0.49465566873550415</v>
+        <v>0.41253987813561943</v>
       </c>
       <c r="L12">
-        <v>0.49324572086334229</v>
-      </c>
-      <c r="M12">
-        <v>882.93341064453125</v>
+        <v>0.42299282676434025</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.10000000149011612</v>
+        <v>47211.996415625712</v>
       </c>
       <c r="C13">
-        <v>179934314496</v>
+        <v>7966.8839761534764</v>
       </c>
       <c r="D13">
-        <v>31132344320</v>
+        <v>47891.864703857304</v>
       </c>
       <c r="E13">
-        <v>180305035264</v>
+        <v>10.776700686249042</v>
       </c>
       <c r="F13">
-        <v>25.917915344238281</v>
+        <v>10.851386064924915</v>
       </c>
       <c r="G13">
-        <v>25.928667068481445</v>
+        <v>0.4155839195729526</v>
       </c>
       <c r="H13">
-        <v>0.54590988159179688</v>
+        <v>0.41137833964203929</v>
       </c>
       <c r="I13">
-        <v>0.54544389247894287</v>
+        <v>0.43062952693004475</v>
       </c>
       <c r="J13">
-        <v>840.6595458984375</v>
+        <v>0.43547228247551384</v>
       </c>
       <c r="K13">
-        <v>0.55089980363845825</v>
+        <v>0.41165127667201928</v>
       </c>
       <c r="L13">
-        <v>0.54827553033828735</v>
-      </c>
-      <c r="M13">
-        <v>832.34869384765625</v>
+        <v>0.42109614125322892</v>
       </c>
     </row>
   </sheetData>

--- a/model/optimization/matlab/opti-ide-val-single-precision.xlsx
+++ b/model/optimization/matlab/opti-ide-val-single-precision.xlsx
@@ -24,7 +24,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
+  <si>
+    <t>grado</t>
+  </si>
+  <si>
+    <t>SSR_ide</t>
+  </si>
+  <si>
+    <t>SSR_val</t>
+  </si>
+  <si>
+    <t>Val_FPE</t>
+  </si>
+  <si>
+    <t>Val_AIC</t>
+  </si>
+  <si>
+    <t>Val_MDL</t>
+  </si>
+  <si>
+    <t>R2_ide</t>
+  </si>
+  <si>
+    <t>R2a_ide</t>
+  </si>
+  <si>
+    <t>RMSE_ide</t>
+  </si>
+  <si>
+    <t>R2_val</t>
+  </si>
+  <si>
+    <t>R2a_val</t>
+  </si>
+  <si>
+    <t>RMSE_val</t>
+  </si>
   <si>
     <t>grado</t>
   </si>
@@ -482,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F060BD-F3C0-4984-9D17-53A8B75E98F2}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
@@ -490,7 +670,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="6.140625" bestFit="true" customWidth="true"/>
     <col min="2" max="2" width="15.85546875" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
@@ -506,40 +686,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">
@@ -1452,6 +1632,120 @@
       </c>
       <c r="L25" s="0">
         <v>811.19350488145221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>12</v>
+      </c>
+      <c r="B26" s="0">
+        <v>334121113684.27942</v>
+      </c>
+      <c r="C26" s="0">
+        <v>58209669626.97052</v>
+      </c>
+      <c r="D26" s="0">
+        <v>334134237728.85693</v>
+      </c>
+      <c r="E26" s="0">
+        <v>26.534808658547007</v>
+      </c>
+      <c r="F26" s="0">
+        <v>26.535013838158754</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.15674146112781862</v>
+      </c>
+      <c r="H26" s="0">
+        <v>0.15672821208464094</v>
+      </c>
+      <c r="I26" s="0">
+        <v>1145.5909754734419</v>
+      </c>
+      <c r="J26" s="0">
+        <v>0.16013535956316405</v>
+      </c>
+      <c r="K26" s="0">
+        <v>0.16006057696712761</v>
+      </c>
+      <c r="L26" s="0">
+        <v>1138.2535780155767</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>12</v>
+      </c>
+      <c r="B27" s="0">
+        <v>334121113684.27942</v>
+      </c>
+      <c r="C27" s="0">
+        <v>58209669626.97052</v>
+      </c>
+      <c r="D27" s="0">
+        <v>334134237728.85693</v>
+      </c>
+      <c r="E27" s="0">
+        <v>26.534808658547007</v>
+      </c>
+      <c r="F27" s="0">
+        <v>26.535013838158754</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.15674146112781862</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.15672821208464094</v>
+      </c>
+      <c r="I27" s="0">
+        <v>1145.5909754734419</v>
+      </c>
+      <c r="J27" s="0">
+        <v>0.16013535956316405</v>
+      </c>
+      <c r="K27" s="0">
+        <v>0.16006057696712761</v>
+      </c>
+      <c r="L27" s="0">
+        <v>1138.2535780155767</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>12</v>
+      </c>
+      <c r="B28" s="0">
+        <v>174486411860.01587</v>
+      </c>
+      <c r="C28" s="0">
+        <v>29471792871.541683</v>
+      </c>
+      <c r="D28" s="0">
+        <v>176999073623.06894</v>
+      </c>
+      <c r="E28" s="0">
+        <v>25.899410092180815</v>
+      </c>
+      <c r="F28" s="0">
+        <v>25.974095470856689</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.55962923928477371</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.55646023949942958</v>
+      </c>
+      <c r="I28" s="0">
+        <v>827.86295188892836</v>
+      </c>
+      <c r="J28" s="0">
+        <v>0.57479296404258373</v>
+      </c>
+      <c r="K28" s="0">
+        <v>0.55685078165401225</v>
+      </c>
+      <c r="L28" s="0">
+        <v>809.90596331710253</v>
       </c>
     </row>
   </sheetData>
